--- a/交付表格.xlsx
+++ b/交付表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="321">
   <si>
     <t>检查类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1201,6 +1201,27 @@
   </si>
   <si>
     <t>两侧胸廓对称无畸形两侧肺野透亮度正常未见异常密度影。两肺纹理清晰无增深、变形。两肺门无增大、增浓边缘清晰。双横膈面光整，两侧肋膈角清晰锐利。心影大小形态未见异常。纵隔居中无增宽。</t>
+  </si>
+  <si>
+    <t>脾脏肋下未角虫及</t>
+  </si>
+  <si>
+    <t>肺活埕小于2600肺活适减低秒用力吐气量小于2200秒用力吐气童减低</t>
+  </si>
+  <si>
+    <t>双侧乳腺组织厚度正常内部回声欠均匀局部导菅轻度增宽右侧乳腺内上象限可见边界清晰的低回声结节大小约5X3刑n。CD血流未见明显异常</t>
+  </si>
+  <si>
+    <t>子宫形态大小正常肌层回声均匀内膜线显示清晰厚度正常范围，宫颈长度正常</t>
+  </si>
+  <si>
+    <t>双侧卵巢显示清晰形态大小正常CD门血流显示正常</t>
+  </si>
+  <si>
+    <t>颈椎生理曲度正常椎体骨质、椎间隙及附件骨结构正常声</t>
+  </si>
+  <si>
+    <t>两侧胸廓对称无畸形两侧肺野透亮度正常末见异常密度影。两肺纹理清晰无增深、变形l两肺门无增大无增浓鹫边缘清晰。双横膈面光整两侧肋膈角清晰锐利。心影大小形态未见异常。纵隔居中无增宽。</t>
   </si>
 </sst>
 </file>

--- a/交付表格.xlsx
+++ b/交付表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="314">
   <si>
     <t>检查类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1201,27 +1201,6 @@
   </si>
   <si>
     <t>两侧胸廓对称无畸形两侧肺野透亮度正常未见异常密度影。两肺纹理清晰无增深、变形。两肺门无增大、增浓边缘清晰。双横膈面光整，两侧肋膈角清晰锐利。心影大小形态未见异常。纵隔居中无增宽。</t>
-  </si>
-  <si>
-    <t>脾脏肋下未角虫及</t>
-  </si>
-  <si>
-    <t>肺活埕小于2600肺活适减低秒用力吐气量小于2200秒用力吐气童减低</t>
-  </si>
-  <si>
-    <t>双侧乳腺组织厚度正常内部回声欠均匀局部导菅轻度增宽右侧乳腺内上象限可见边界清晰的低回声结节大小约5X3刑n。CD血流未见明显异常</t>
-  </si>
-  <si>
-    <t>子宫形态大小正常肌层回声均匀内膜线显示清晰厚度正常范围，宫颈长度正常</t>
-  </si>
-  <si>
-    <t>双侧卵巢显示清晰形态大小正常CD门血流显示正常</t>
-  </si>
-  <si>
-    <t>颈椎生理曲度正常椎体骨质、椎间隙及附件骨结构正常声</t>
-  </si>
-  <si>
-    <t>两侧胸廓对称无畸形两侧肺野透亮度正常末见异常密度影。两肺纹理清晰无增深、变形l两肺门无增大无增浓鹫边缘清晰。双横膈面光整两侧肋膈角清晰锐利。心影大小形态未见异常。纵隔居中无增宽。</t>
   </si>
 </sst>
 </file>

--- a/交付表格.xlsx
+++ b/交付表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="248">
   <si>
     <t>检查类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -996,211 +996,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>158.5</t>
-  </si>
-  <si>
-    <t>45.6</t>
-  </si>
-  <si>
-    <t>18.2</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>无特殊</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>齐</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>双侧呼吸音未闻及异常</t>
-  </si>
-  <si>
-    <t>肝脏肋下未触及</t>
-  </si>
-  <si>
-    <t>脾脏肋下未触及</t>
-  </si>
-  <si>
-    <t>双肾区无叩痛</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>42.7</t>
-  </si>
-  <si>
-    <t>92.0</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>10.5</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>39.9</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>49.2</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>1.010</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>阴性</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>5.60</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>75.2</t>
-  </si>
-  <si>
-    <t>48.4</t>
-  </si>
-  <si>
-    <t>26.80</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>4.87</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>1.76</t>
-  </si>
-  <si>
-    <t>2.57</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>8.35</t>
-  </si>
-  <si>
-    <t>窦性心律正常心电图</t>
-  </si>
-  <si>
-    <t>肺活量小于2600肺活量减低秒用力吐气量小于2200秒用力吐气量减低</t>
-  </si>
-  <si>
     <t>未见明显异常</t>
   </si>
   <si>
-    <t>双侧乳腺组织厚度正常内部回声欠均匀局部导菅轻度增宽右侧乳腺内上象限可见边界清晰的低回声结节大小约5X3删，CD血流未见明显异常</t>
-  </si>
-  <si>
-    <t>心内结构及彩色多普勒血流成像未见明显异常。</t>
-  </si>
-  <si>
-    <t>子宫形态大小正常肌层回声均匀内膜线显示清晰厚度正常范围宫颈长度正常</t>
-  </si>
-  <si>
-    <t>双侧卵巢显示清晰形态大小正常CD刊血流显示正常</t>
-  </si>
-  <si>
-    <t>颈椎生理曲度正常，椎体骨质、椎间隙及附件骨结构正常。</t>
-  </si>
-  <si>
-    <t>两侧胸廓对称无畸形两侧肺野透亮度正常未见异常密度影。两肺纹理清晰无增深、变形。两肺门无增大、增浓边缘清晰。双横膈面光整，两侧肋膈角清晰锐利。心影大小形态未见异常。纵隔居中无增宽。</t>
+    <t>双侧乳腺组织厚度正常,内部回声欠均匀局部导营轻度增宽右侧荸L腺内上象限可见边界清晰的低回声结节大小约5X3mm霆CDk血流未见明显异常</t>
+  </si>
+  <si>
+    <t>见L双内结构及彩色多普勒血流成像未见明显异常。</t>
   </si>
 </sst>
 </file>
@@ -1622,18 +1424,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="9" defaultRowHeight="24.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="15.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="12.33203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="15.109375" collapsed="true"/>
-    <col min="7" max="7" style="3" width="9.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="36.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="11.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="2" width="21.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="2" width="27.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.0" collapsed="true"/>
+    <col min="1" max="1" style="1" width="9.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="16.6640625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.33203125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="2" width="15.0" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="2" width="12.33203125" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="2" width="15.109375" collapsed="false"/>
+    <col min="7" max="7" style="3" width="9.0" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" style="2" width="36.77734375" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" style="2" width="11.33203125" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="2" width="21.77734375" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="2" width="27.0" collapsed="false"/>
+    <col min="12" max="16384" style="1" width="9.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="73.5" r="1" s="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -1678,9 +1480,7 @@
       <c r="D2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>245</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="5" t="s">
         <v>216</v>
       </c>
@@ -1706,9 +1506,7 @@
       <c r="D3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>246</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" s="5" t="s">
         <v>216</v>
       </c>
@@ -1734,9 +1532,7 @@
       <c r="D4" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>247</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" s="5" t="s">
         <v>216</v>
       </c>
@@ -1762,9 +1558,7 @@
       <c r="D5" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>248</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" s="5" t="s">
         <v>216</v>
       </c>
@@ -1792,9 +1586,7 @@
       <c r="D6" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="E6" s="7"/>
       <c r="F6" s="5" t="s">
         <v>216</v>
       </c>
@@ -1825,9 +1617,7 @@
       <c r="E7" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>250</v>
-      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="6"/>
       <c r="H7" s="5" t="s">
         <v>218</v>
@@ -1855,9 +1645,7 @@
       <c r="E8" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>251</v>
-      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
         <v>218</v>
@@ -1885,9 +1673,7 @@
       <c r="E9" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>252</v>
-      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="6" t="s">
         <v>39</v>
       </c>
@@ -1917,9 +1703,7 @@
       <c r="E10" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>253</v>
-      </c>
+      <c r="F10" s="9"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5" t="s">
         <v>218</v>
@@ -1943,9 +1727,7 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="9" t="s">
-        <v>254</v>
-      </c>
+      <c r="F11" s="9"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1965,9 +1747,7 @@
       <c r="E12" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>255</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
         <v>218</v>
@@ -1995,9 +1775,7 @@
       <c r="E13" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>256</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5" t="s">
         <v>218</v>
@@ -2025,9 +1803,7 @@
       <c r="E14" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>257</v>
-      </c>
+      <c r="F14" s="9"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5" t="s">
         <v>218</v>
@@ -2055,9 +1831,7 @@
       <c r="E15" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>258</v>
-      </c>
+      <c r="F15" s="9"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
         <v>218</v>
@@ -2085,9 +1859,7 @@
       <c r="E16" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>250</v>
-      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5" t="s">
         <v>218</v>
@@ -2112,9 +1884,7 @@
       <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>259</v>
-      </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="5" t="s">
         <v>241</v>
       </c>
@@ -2142,9 +1912,7 @@
       <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>260</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="5" t="s">
         <v>241</v>
       </c>
@@ -2172,9 +1940,7 @@
       <c r="D19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>261</v>
-      </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="5" t="s">
         <v>241</v>
       </c>
@@ -2202,9 +1968,7 @@
       <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>262</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="5" t="s">
         <v>241</v>
       </c>
@@ -2232,9 +1996,7 @@
       <c r="D21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>263</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="5" t="s">
         <v>241</v>
       </c>
@@ -2262,9 +2024,7 @@
       <c r="D22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>264</v>
-      </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="5" t="s">
         <v>241</v>
       </c>
@@ -2292,9 +2052,7 @@
       <c r="D23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>265</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="5" t="s">
         <v>241</v>
       </c>
@@ -2322,9 +2080,7 @@
       <c r="D24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="5" t="s">
         <v>241</v>
       </c>
@@ -2352,9 +2108,7 @@
       <c r="D25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>267</v>
-      </c>
+      <c r="E25" s="9"/>
       <c r="F25" s="5" t="s">
         <v>241</v>
       </c>
@@ -2382,9 +2136,7 @@
       <c r="D26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>268</v>
-      </c>
+      <c r="E26" s="9"/>
       <c r="F26" s="5" t="s">
         <v>241</v>
       </c>
@@ -2410,9 +2162,7 @@
       <c r="D27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>269</v>
-      </c>
+      <c r="E27" s="9"/>
       <c r="F27" s="5" t="s">
         <v>241</v>
       </c>
@@ -2440,9 +2190,7 @@
       <c r="D28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>270</v>
-      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="5" t="s">
         <v>241</v>
       </c>
@@ -2470,9 +2218,7 @@
       <c r="D29" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>271</v>
-      </c>
+      <c r="E29" s="9"/>
       <c r="F29" s="5" t="s">
         <v>241</v>
       </c>
@@ -2500,9 +2246,7 @@
       <c r="D30" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>272</v>
-      </c>
+      <c r="E30" s="9"/>
       <c r="F30" s="5" t="s">
         <v>241</v>
       </c>
@@ -2530,9 +2274,7 @@
       <c r="D31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>273</v>
-      </c>
+      <c r="E31" s="9"/>
       <c r="F31" s="5" t="s">
         <v>241</v>
       </c>
@@ -2560,9 +2302,7 @@
       <c r="D32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>274</v>
-      </c>
+      <c r="E32" s="9"/>
       <c r="F32" s="5" t="s">
         <v>241</v>
       </c>
@@ -2590,9 +2330,7 @@
       <c r="D33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>275</v>
-      </c>
+      <c r="E33" s="9"/>
       <c r="F33" s="5" t="s">
         <v>241</v>
       </c>
@@ -2618,9 +2356,7 @@
       <c r="D34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>276</v>
-      </c>
+      <c r="E34" s="9"/>
       <c r="F34" s="5" t="s">
         <v>241</v>
       </c>
@@ -2646,9 +2382,7 @@
       <c r="D35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>277</v>
-      </c>
+      <c r="E35" s="9"/>
       <c r="F35" s="5" t="s">
         <v>241</v>
       </c>
@@ -2674,9 +2408,7 @@
       <c r="D36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E36" s="9"/>
       <c r="F36" s="5" t="s">
         <v>241</v>
       </c>
@@ -2704,9 +2436,7 @@
       <c r="D37" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E37" s="9"/>
       <c r="F37" s="5" t="s">
         <v>241</v>
       </c>
@@ -2732,9 +2462,7 @@
       <c r="D38" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E38" s="9"/>
       <c r="F38" s="5" t="s">
         <v>241</v>
       </c>
@@ -2762,9 +2490,7 @@
       <c r="D39" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="5" t="s">
         <v>241</v>
       </c>
@@ -2792,9 +2518,7 @@
       <c r="D40" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="5" t="s">
         <v>241</v>
       </c>
@@ -2822,9 +2546,7 @@
       <c r="D41" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="5" t="s">
         <v>241</v>
       </c>
@@ -2852,9 +2574,7 @@
       <c r="D42" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="5" t="s">
         <v>241</v>
       </c>
@@ -2882,9 +2602,7 @@
       <c r="D43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E43" s="9"/>
       <c r="F43" s="5" t="s">
         <v>241</v>
       </c>
@@ -2912,9 +2630,7 @@
       <c r="D44" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>279</v>
-      </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="5" t="s">
         <v>241</v>
       </c>
@@ -2942,9 +2658,7 @@
       <c r="D45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>280</v>
-      </c>
+      <c r="E45" s="9"/>
       <c r="F45" s="5" t="s">
         <v>241</v>
       </c>
@@ -2972,9 +2686,7 @@
       <c r="D46" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>281</v>
-      </c>
+      <c r="E46" s="9"/>
       <c r="F46" s="5" t="s">
         <v>241</v>
       </c>
@@ -3002,9 +2714,7 @@
       <c r="D47" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>282</v>
-      </c>
+      <c r="E47" s="9"/>
       <c r="F47" s="5" t="s">
         <v>241</v>
       </c>
@@ -3032,9 +2742,7 @@
       <c r="D48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>283</v>
-      </c>
+      <c r="E48" s="9"/>
       <c r="F48" s="5" t="s">
         <v>241</v>
       </c>
@@ -3062,9 +2770,7 @@
       <c r="D49" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>284</v>
-      </c>
+      <c r="E49" s="9"/>
       <c r="F49" s="5" t="s">
         <v>241</v>
       </c>
@@ -3092,9 +2798,7 @@
       <c r="D50" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>285</v>
-      </c>
+      <c r="E50" s="9"/>
       <c r="F50" s="5" t="s">
         <v>241</v>
       </c>
@@ -3122,9 +2826,7 @@
       <c r="D51" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>286</v>
-      </c>
+      <c r="E51" s="9"/>
       <c r="F51" s="5" t="s">
         <v>241</v>
       </c>
@@ -3152,9 +2854,7 @@
       <c r="D52" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>287</v>
-      </c>
+      <c r="E52" s="9"/>
       <c r="F52" s="5" t="s">
         <v>241</v>
       </c>
@@ -3182,9 +2882,7 @@
       <c r="D53" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>288</v>
-      </c>
+      <c r="E53" s="9"/>
       <c r="F53" s="5" t="s">
         <v>241</v>
       </c>
@@ -3212,9 +2910,7 @@
       <c r="D54" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>289</v>
-      </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="5" t="s">
         <v>241</v>
       </c>
@@ -3240,9 +2936,7 @@
       <c r="D55" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>290</v>
-      </c>
+      <c r="E55" s="9"/>
       <c r="F55" s="5" t="s">
         <v>241</v>
       </c>
@@ -3270,9 +2964,7 @@
       <c r="D56" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="E56" s="9"/>
       <c r="F56" s="5" t="s">
         <v>241</v>
       </c>
@@ -3300,9 +2992,7 @@
       <c r="D57" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="5" t="s">
         <v>241</v>
       </c>
@@ -3330,9 +3020,7 @@
       <c r="D58" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>293</v>
-      </c>
+      <c r="E58" s="9"/>
       <c r="F58" s="5" t="s">
         <v>241</v>
       </c>
@@ -3360,9 +3048,7 @@
       <c r="D59" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="E59" s="9"/>
       <c r="F59" s="5" t="s">
         <v>241</v>
       </c>
@@ -3390,9 +3076,7 @@
       <c r="D60" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>295</v>
-      </c>
+      <c r="E60" s="9"/>
       <c r="F60" s="5" t="s">
         <v>241</v>
       </c>
@@ -3420,9 +3104,7 @@
       <c r="D61" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>296</v>
-      </c>
+      <c r="E61" s="9"/>
       <c r="F61" s="5" t="s">
         <v>241</v>
       </c>
@@ -3450,9 +3132,7 @@
       <c r="D62" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>297</v>
-      </c>
+      <c r="E62" s="9"/>
       <c r="F62" s="5" t="s">
         <v>241</v>
       </c>
@@ -3480,9 +3160,7 @@
       <c r="D63" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>298</v>
-      </c>
+      <c r="E63" s="9"/>
       <c r="F63" s="5" t="s">
         <v>241</v>
       </c>
@@ -3510,9 +3188,7 @@
       <c r="D64" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>299</v>
-      </c>
+      <c r="E64" s="9"/>
       <c r="F64" s="5" t="s">
         <v>241</v>
       </c>
@@ -3540,9 +3216,7 @@
       <c r="D65" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>300</v>
-      </c>
+      <c r="E65" s="9"/>
       <c r="F65" s="5" t="s">
         <v>241</v>
       </c>
@@ -3570,9 +3244,7 @@
       <c r="D66" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E66" s="9" t="s">
-        <v>278</v>
-      </c>
+      <c r="E66" s="9"/>
       <c r="F66" s="5" t="s">
         <v>241</v>
       </c>
@@ -3598,9 +3270,7 @@
       <c r="D67" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>301</v>
-      </c>
+      <c r="E67" s="9"/>
       <c r="F67" s="5" t="s">
         <v>241</v>
       </c>
@@ -3628,9 +3298,7 @@
       <c r="D68" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>302</v>
-      </c>
+      <c r="E68" s="9"/>
       <c r="F68" s="5" t="s">
         <v>241</v>
       </c>
@@ -3658,9 +3326,7 @@
       <c r="D69" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>303</v>
-      </c>
+      <c r="E69" s="9"/>
       <c r="F69" s="5" t="s">
         <v>241</v>
       </c>
@@ -3688,9 +3354,7 @@
       <c r="D70" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>304</v>
-      </c>
+      <c r="E70" s="9"/>
       <c r="F70" s="5" t="s">
         <v>241</v>
       </c>
@@ -3721,9 +3385,7 @@
       <c r="E71" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F71" s="9" t="s">
-        <v>305</v>
-      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="6"/>
       <c r="H71" s="5" t="s">
         <v>221</v>
@@ -3751,9 +3413,7 @@
       <c r="E72" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>306</v>
-      </c>
+      <c r="F72" s="9"/>
       <c r="G72" s="6"/>
       <c r="H72" s="5" t="s">
         <v>224</v>
@@ -3782,7 +3442,7 @@
         <v>224</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="5" t="s">
@@ -3812,7 +3472,7 @@
         <v>224</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="5" t="s">
@@ -3842,7 +3502,7 @@
         <v>224</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>309</v>
+        <v>247</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="5" t="s">
@@ -3872,7 +3532,7 @@
         <v>224</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="5" t="s">
@@ -3902,7 +3562,7 @@
         <v>224</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="5" t="s">
@@ -3932,7 +3592,7 @@
         <v>224</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="5" t="s">
@@ -3962,7 +3622,7 @@
         <v>224</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="5" t="s">
@@ -3992,7 +3652,7 @@
         <v>224</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="5" t="s">
@@ -4021,9 +3681,7 @@
       <c r="E81" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>310</v>
-      </c>
+      <c r="F81" s="9"/>
       <c r="G81" s="6"/>
       <c r="H81" s="5" t="s">
         <v>224</v>
@@ -4051,9 +3709,7 @@
       <c r="E82" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>311</v>
-      </c>
+      <c r="F82" s="9"/>
       <c r="G82" s="6"/>
       <c r="H82" s="5" t="s">
         <v>224</v>
@@ -4081,9 +3737,7 @@
       <c r="E83" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>312</v>
-      </c>
+      <c r="F83" s="9"/>
       <c r="G83" s="6"/>
       <c r="H83" s="5" t="s">
         <v>224</v>
@@ -4111,9 +3765,7 @@
       <c r="E84" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="9" t="s">
-        <v>313</v>
-      </c>
+      <c r="F84" s="9"/>
       <c r="G84" s="6"/>
       <c r="H84" s="5" t="s">
         <v>224</v>
